--- a/vegasodds.xlsx
+++ b/vegasodds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daviddevito/Dropbox/NFLSurvivor_2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daviddevito/Dropbox/NFL_Survivor_Pool_Algo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63E4968-E9C2-4042-B238-7165654E7CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF820D4-ADB5-9146-B4BA-5CFB31ECD0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="740" windowWidth="25880" windowHeight="16780" xr2:uid="{DEA9C9A6-06A7-BE49-B21F-182B08E4DAEE}"/>
+    <workbookView xWindow="15200" yWindow="740" windowWidth="13620" windowHeight="16780" xr2:uid="{DEA9C9A6-06A7-BE49-B21F-182B08E4DAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Week1</t>
   </si>
@@ -75,6 +75,117 @@
   </si>
   <si>
     <t>Week3</t>
+  </si>
+  <si>
+    <t>Ravens</t>
+  </si>
+  <si>
+    <t>Chiefs</t>
+  </si>
+  <si>
+    <t>Packers</t>
+  </si>
+  <si>
+    <t>Eagles</t>
+  </si>
+  <si>
+    <t>Jaguars</t>
+  </si>
+  <si>
+    <t>Dolphins</t>
+  </si>
+  <si>
+    <t>Steelers</t>
+  </si>
+  <si>
+    <t>Patriots</t>
+  </si>
+  <si>
+    <t>Cardinals</t>
+  </si>
+  <si>
+    <t>Texans</t>
+  </si>
+  <si>
+    <t>Colts</t>
+  </si>
+  <si>
+    <t>Raiders</t>
+  </si>
+  <si>
+    <t>Chargers</t>
+  </si>
+  <si>
+    <t>Broncos</t>
+  </si>
+  <si>
+    <t>Seahawks</t>
+  </si>
+  <si>
+    <t>Commanders</t>
+  </si>
+  <si>
+    <t>Buccaneers</t>
+  </si>
+  <si>
+    <t>Browns</t>
+  </si>
+  <si>
+    <t>Rams</t>
+  </si>
+  <si>
+    <t>Lions</t>
+  </si>
+  <si>
+    <t>Jets</t>
+  </si>
+  <si>
+    <t>49ers</t>
+  </si>
+  <si>
+    <t>Week4</t>
+  </si>
+  <si>
+    <t>Week5</t>
+  </si>
+  <si>
+    <t>Week6</t>
+  </si>
+  <si>
+    <t>Week7</t>
+  </si>
+  <si>
+    <t>Week8</t>
+  </si>
+  <si>
+    <t>Week9</t>
+  </si>
+  <si>
+    <t>Week10</t>
+  </si>
+  <si>
+    <t>Week11</t>
+  </si>
+  <si>
+    <t>Week12</t>
+  </si>
+  <si>
+    <t>Week13</t>
+  </si>
+  <si>
+    <t>Week14</t>
+  </si>
+  <si>
+    <t>Week15</t>
+  </si>
+  <si>
+    <t>Week16</t>
+  </si>
+  <si>
+    <t>Week17</t>
+  </si>
+  <si>
+    <t>Week18</t>
   </si>
 </sst>
 </file>
@@ -446,15 +557,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D62FC5C-F8D9-694E-BAE3-7B86A4BA66FF}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -464,148 +578,1944 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>-3</v>
+        <v>-3.5</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>-6.5</v>
       </c>
       <c r="D2">
+        <v>-4</v>
+      </c>
+      <c r="E2">
+        <v>-12</v>
+      </c>
+      <c r="F2">
+        <v>-3.5</v>
+      </c>
+      <c r="G2">
+        <v>-6.5</v>
+      </c>
+      <c r="H2">
+        <v>-3.5</v>
+      </c>
+      <c r="I2">
+        <v>-6.5</v>
+      </c>
+      <c r="J2">
+        <v>-4</v>
+      </c>
+      <c r="K2">
+        <v>-12</v>
+      </c>
+      <c r="L2">
+        <v>-3.5</v>
+      </c>
+      <c r="M2">
+        <v>-6.5</v>
+      </c>
+      <c r="N2">
+        <v>-3.5</v>
+      </c>
+      <c r="O2">
+        <v>-6.5</v>
+      </c>
+      <c r="P2">
+        <v>-4</v>
+      </c>
+      <c r="Q2">
+        <v>-12</v>
+      </c>
+      <c r="R2">
+        <v>-3.5</v>
+      </c>
+      <c r="S2">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
       <c r="B3">
-        <v>3</v>
+        <v>-4.5</v>
       </c>
       <c r="C3">
-        <v>-3</v>
+        <v>3.5</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-4.5</v>
+      </c>
+      <c r="G3">
+        <v>3.5</v>
+      </c>
+      <c r="H3">
+        <v>-4.5</v>
+      </c>
+      <c r="I3">
+        <v>3.5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <v>-4.5</v>
+      </c>
+      <c r="M3">
+        <v>3.5</v>
+      </c>
+      <c r="N3">
+        <v>-4.5</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>-1</v>
+      </c>
+      <c r="R3">
+        <v>-4.5</v>
+      </c>
+      <c r="S3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-8.5</v>
+      </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+      <c r="D4">
+        <v>-6.5</v>
+      </c>
+      <c r="E4">
+        <v>-5.5</v>
+      </c>
+      <c r="F4">
+        <v>-8.5</v>
+      </c>
+      <c r="G4">
+        <v>3.5</v>
+      </c>
+      <c r="H4">
+        <v>-8.5</v>
+      </c>
+      <c r="I4">
+        <v>3.5</v>
+      </c>
+      <c r="J4">
+        <v>-6.5</v>
+      </c>
+      <c r="K4">
+        <v>-5.5</v>
+      </c>
+      <c r="L4">
+        <v>-8.5</v>
+      </c>
+      <c r="M4">
+        <v>3.5</v>
+      </c>
+      <c r="N4">
+        <v>-8.5</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
+        <v>-6.5</v>
+      </c>
+      <c r="Q4">
+        <v>-5.5</v>
+      </c>
+      <c r="R4">
+        <v>-8.5</v>
+      </c>
+      <c r="S4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>-6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>-3.5</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>-6</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>-3.5</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>-6</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>-6</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>-3.5</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>-6</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>5.5</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3.5</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>5.5</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>5.5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3.5</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>5.5</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>5.5</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>3.5</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>5.5</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>-2.5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>-5.5</v>
+      </c>
+      <c r="E7">
+        <v>-1.5</v>
+      </c>
+      <c r="F7">
+        <v>-2.5</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>-2.5</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>-5.5</v>
+      </c>
+      <c r="K7">
+        <v>-1.5</v>
+      </c>
+      <c r="L7">
+        <v>-2.5</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>-2.5</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>-5.5</v>
+      </c>
+      <c r="Q7">
+        <v>-1.5</v>
+      </c>
+      <c r="R7">
+        <v>-2.5</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>-3.5</v>
+      </c>
+      <c r="C8">
+        <v>6.5</v>
+      </c>
+      <c r="D8">
+        <v>-3.5</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>-3.5</v>
+      </c>
+      <c r="G8">
+        <v>6.5</v>
+      </c>
+      <c r="H8">
+        <v>-3.5</v>
+      </c>
+      <c r="I8">
+        <v>6.5</v>
+      </c>
+      <c r="J8">
+        <v>-3.5</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>-3.5</v>
+      </c>
+      <c r="M8">
+        <v>6.5</v>
+      </c>
+      <c r="N8">
+        <v>-3.5</v>
+      </c>
+      <c r="O8">
+        <v>6.5</v>
+      </c>
+      <c r="P8">
+        <v>-3.5</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>-3.5</v>
+      </c>
+      <c r="S8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2.5</v>
+      </c>
+      <c r="D9">
+        <v>3.5</v>
+      </c>
+      <c r="E9">
+        <v>-3</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>2.5</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>2.5</v>
+      </c>
+      <c r="J9">
+        <v>3.5</v>
+      </c>
+      <c r="K9">
+        <v>-3</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>2.5</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>2.5</v>
+      </c>
+      <c r="P9">
+        <v>3.5</v>
+      </c>
+      <c r="Q9">
+        <v>-3</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>-3</v>
+      </c>
+      <c r="C10">
+        <v>-3.5</v>
+      </c>
+      <c r="D10">
+        <v>1.5</v>
+      </c>
+      <c r="E10">
+        <v>3.5</v>
+      </c>
+      <c r="F10">
+        <v>-3</v>
+      </c>
+      <c r="G10">
+        <v>-3.5</v>
+      </c>
+      <c r="H10">
+        <v>-3</v>
+      </c>
+      <c r="I10">
+        <v>-3.5</v>
+      </c>
+      <c r="J10">
+        <v>1.5</v>
+      </c>
+      <c r="K10">
+        <v>3.5</v>
+      </c>
+      <c r="L10">
+        <v>-3</v>
+      </c>
+      <c r="M10">
+        <v>-3.5</v>
+      </c>
+      <c r="N10">
+        <v>-3</v>
+      </c>
+      <c r="O10">
+        <v>-3.5</v>
+      </c>
+      <c r="P10">
+        <v>1.5</v>
+      </c>
+      <c r="Q10">
+        <v>3.5</v>
+      </c>
+      <c r="R10">
+        <v>-3</v>
+      </c>
+      <c r="S10">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <v>-3.5</v>
+      </c>
+      <c r="D11">
+        <v>-3.5</v>
+      </c>
+      <c r="E11">
+        <v>-3.5</v>
+      </c>
+      <c r="F11">
+        <v>-3</v>
+      </c>
+      <c r="G11">
+        <v>-3.5</v>
+      </c>
+      <c r="H11">
+        <v>-3</v>
+      </c>
+      <c r="I11">
+        <v>-3.5</v>
+      </c>
+      <c r="J11">
+        <v>-3.5</v>
+      </c>
+      <c r="K11">
+        <v>-3.5</v>
+      </c>
+      <c r="L11">
+        <v>-3</v>
+      </c>
+      <c r="M11">
+        <v>-3.5</v>
+      </c>
+      <c r="N11">
+        <v>-3</v>
+      </c>
+      <c r="O11">
+        <v>-3.5</v>
+      </c>
+      <c r="P11">
+        <v>-3.5</v>
+      </c>
+      <c r="Q11">
+        <v>-3.5</v>
+      </c>
+      <c r="R11">
+        <v>-3</v>
+      </c>
+      <c r="S11">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+      <c r="C12">
+        <v>4.5</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>2.5</v>
+      </c>
+      <c r="G12">
+        <v>4.5</v>
+      </c>
+      <c r="H12">
+        <v>2.5</v>
+      </c>
+      <c r="I12">
+        <v>4.5</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>2.5</v>
+      </c>
+      <c r="M12">
+        <v>4.5</v>
+      </c>
+      <c r="N12">
+        <v>2.5</v>
+      </c>
+      <c r="O12">
+        <v>4.5</v>
+      </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+      <c r="R12">
+        <v>2.5</v>
+      </c>
+      <c r="S12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>3.5</v>
+      </c>
+      <c r="C13">
+        <v>-2.5</v>
+      </c>
+      <c r="D13">
+        <v>6.5</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3.5</v>
+      </c>
+      <c r="G13">
+        <v>-2.5</v>
+      </c>
+      <c r="H13">
+        <v>3.5</v>
+      </c>
+      <c r="I13">
+        <v>-2.5</v>
+      </c>
+      <c r="J13">
+        <v>6.5</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>-2.5</v>
+      </c>
+      <c r="N13">
+        <v>3.5</v>
+      </c>
+      <c r="O13">
+        <v>-2.5</v>
+      </c>
+      <c r="P13">
+        <v>6.5</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>3.5</v>
+      </c>
+      <c r="S13">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>2.5</v>
+      </c>
+      <c r="C14">
+        <v>-6.5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-5</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>-6.5</v>
+      </c>
+      <c r="H14">
+        <v>2.5</v>
+      </c>
+      <c r="I14">
+        <v>-6.5</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>-5</v>
+      </c>
+      <c r="L14">
+        <v>2.5</v>
+      </c>
+      <c r="M14">
+        <v>-6.5</v>
+      </c>
+      <c r="N14">
+        <v>2.5</v>
+      </c>
+      <c r="O14">
+        <v>-6.5</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>-5</v>
+      </c>
+      <c r="R14">
+        <v>2.5</v>
+      </c>
+      <c r="S14">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>-3</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-2.5</v>
+      </c>
+      <c r="E15">
+        <v>-6.5</v>
+      </c>
+      <c r="F15">
+        <v>-3</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <v>-3</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15">
+        <v>-2.5</v>
+      </c>
+      <c r="K15">
+        <v>-6.5</v>
+      </c>
+      <c r="L15">
+        <v>-3</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15">
+        <v>-3</v>
+      </c>
+      <c r="O15">
+        <v>-1</v>
+      </c>
+      <c r="P15">
+        <v>-2.5</v>
+      </c>
+      <c r="Q15">
+        <v>-6.5</v>
+      </c>
+      <c r="R15">
+        <v>-3</v>
+      </c>
+      <c r="S15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>-2.5</v>
+      </c>
+      <c r="C16">
+        <v>-3.5</v>
+      </c>
+      <c r="D16">
+        <v>-3</v>
+      </c>
+      <c r="E16">
+        <v>-3</v>
+      </c>
+      <c r="F16">
+        <v>-2.5</v>
+      </c>
+      <c r="G16">
+        <v>-3.5</v>
+      </c>
+      <c r="H16">
+        <v>-2.5</v>
+      </c>
+      <c r="I16">
+        <v>-3.5</v>
+      </c>
+      <c r="J16">
+        <v>-3</v>
+      </c>
+      <c r="K16">
+        <v>-3</v>
+      </c>
+      <c r="L16">
+        <v>-2.5</v>
+      </c>
+      <c r="M16">
+        <v>-3.5</v>
+      </c>
+      <c r="N16">
+        <v>-2.5</v>
+      </c>
+      <c r="O16">
+        <v>-3.5</v>
+      </c>
+      <c r="P16">
+        <v>-3</v>
+      </c>
+      <c r="Q16">
+        <v>-3</v>
+      </c>
+      <c r="R16">
+        <v>-2.5</v>
+      </c>
+      <c r="S16">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>-3</v>
+      </c>
+      <c r="C17">
+        <v>3.5</v>
+      </c>
+      <c r="D17">
+        <v>3.5</v>
+      </c>
+      <c r="E17">
+        <v>-3.5</v>
+      </c>
+      <c r="F17">
+        <v>-3</v>
+      </c>
+      <c r="G17">
+        <v>3.5</v>
+      </c>
+      <c r="H17">
+        <v>-3</v>
+      </c>
+      <c r="I17">
+        <v>3.5</v>
+      </c>
+      <c r="J17">
+        <v>3.5</v>
+      </c>
+      <c r="K17">
+        <v>-3.5</v>
+      </c>
+      <c r="L17">
+        <v>-3</v>
+      </c>
+      <c r="M17">
+        <v>3.5</v>
+      </c>
+      <c r="N17">
+        <v>-3</v>
+      </c>
+      <c r="O17">
+        <v>3.5</v>
+      </c>
+      <c r="P17">
+        <v>3.5</v>
+      </c>
+      <c r="Q17">
+        <v>-3.5</v>
+      </c>
+      <c r="R17">
+        <v>-3</v>
+      </c>
+      <c r="S17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2.5</v>
+      </c>
+      <c r="D18">
+        <v>5.5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.5</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2.5</v>
+      </c>
+      <c r="J18">
+        <v>5.5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.5</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>2.5</v>
+      </c>
+      <c r="P18">
+        <v>5.5</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>-2</v>
+      </c>
+      <c r="D19">
+        <v>3.5</v>
+      </c>
+      <c r="E19">
+        <v>3.5</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>-2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>-2</v>
+      </c>
+      <c r="J19">
+        <v>3.5</v>
+      </c>
+      <c r="K19">
+        <v>3.5</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>-2</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>-2</v>
+      </c>
+      <c r="P19">
+        <v>3.5</v>
+      </c>
+      <c r="Q19">
+        <v>3.5</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>3.5</v>
+      </c>
+      <c r="C20">
+        <v>-4</v>
+      </c>
+      <c r="D20">
+        <v>-7</v>
+      </c>
+      <c r="E20">
+        <v>-7</v>
+      </c>
+      <c r="F20">
+        <v>3.5</v>
+      </c>
+      <c r="G20">
+        <v>-4</v>
+      </c>
+      <c r="H20">
+        <v>3.5</v>
+      </c>
+      <c r="I20">
+        <v>-4</v>
+      </c>
+      <c r="J20">
+        <v>-7</v>
+      </c>
+      <c r="K20">
+        <v>-7</v>
+      </c>
+      <c r="L20">
+        <v>3.5</v>
+      </c>
+      <c r="M20">
+        <v>-4</v>
+      </c>
+      <c r="N20">
+        <v>3.5</v>
+      </c>
+      <c r="O20">
+        <v>-4</v>
+      </c>
+      <c r="P20">
+        <v>-7</v>
+      </c>
+      <c r="Q20">
+        <v>-7</v>
+      </c>
+      <c r="R20">
+        <v>3.5</v>
+      </c>
+      <c r="S20">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>-3.5</v>
+      </c>
+      <c r="C21">
+        <v>-6.5</v>
+      </c>
+      <c r="D21">
+        <v>-3.5</v>
+      </c>
+      <c r="E21">
+        <v>-6</v>
+      </c>
+      <c r="F21">
+        <v>-3.5</v>
+      </c>
+      <c r="G21">
+        <v>-6.5</v>
+      </c>
+      <c r="H21">
+        <v>-3.5</v>
+      </c>
+      <c r="I21">
+        <v>-6.5</v>
+      </c>
+      <c r="J21">
+        <v>-3.5</v>
+      </c>
+      <c r="K21">
+        <v>-6</v>
+      </c>
+      <c r="L21">
+        <v>-3.5</v>
+      </c>
+      <c r="M21">
+        <v>-6.5</v>
+      </c>
+      <c r="N21">
+        <v>-3.5</v>
+      </c>
+      <c r="O21">
+        <v>-6.5</v>
+      </c>
+      <c r="P21">
+        <v>-3.5</v>
+      </c>
+      <c r="Q21">
+        <v>-6</v>
+      </c>
+      <c r="R21">
+        <v>-3.5</v>
+      </c>
+      <c r="S21">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>2.5</v>
+      </c>
+      <c r="C22">
+        <v>-4.5</v>
+      </c>
+      <c r="D22">
+        <v>-4</v>
+      </c>
+      <c r="E22">
+        <v>-5.5</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22">
+        <v>-4.5</v>
+      </c>
+      <c r="H22">
+        <v>2.5</v>
+      </c>
+      <c r="I22">
+        <v>-4.5</v>
+      </c>
+      <c r="J22">
+        <v>-4</v>
+      </c>
+      <c r="K22">
+        <v>-5.5</v>
+      </c>
+      <c r="L22">
+        <v>2.5</v>
+      </c>
+      <c r="M22">
+        <v>-4.5</v>
+      </c>
+      <c r="N22">
+        <v>2.5</v>
+      </c>
+      <c r="O22">
+        <v>-4.5</v>
+      </c>
+      <c r="P22">
+        <v>-4</v>
+      </c>
+      <c r="Q22">
+        <v>-5.5</v>
+      </c>
+      <c r="R22">
+        <v>2.5</v>
+      </c>
+      <c r="S22">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
+      <c r="C23">
+        <v>-3.5</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>5.5</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>-3.5</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>-3.5</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>5.5</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>-3.5</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>-3.5</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>5.5</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>8.5</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>8.5</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>8.5</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+      <c r="L24">
+        <v>8.5</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>8.5</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>7</v>
+      </c>
+      <c r="Q24">
+        <v>12</v>
+      </c>
+      <c r="R24">
+        <v>8.5</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>7.5</v>
+      </c>
+      <c r="D25">
+        <v>-4</v>
+      </c>
+      <c r="E25">
+        <v>1.5</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>7.5</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>7.5</v>
+      </c>
+      <c r="J25">
+        <v>-4</v>
+      </c>
+      <c r="K25">
+        <v>1.5</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>7.5</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>7.5</v>
+      </c>
+      <c r="P25">
+        <v>-4</v>
+      </c>
+      <c r="Q25">
+        <v>1.5</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>3.5</v>
+      </c>
+      <c r="C26">
+        <v>-2.5</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="F26">
+        <v>3.5</v>
+      </c>
+      <c r="G26">
+        <v>-2.5</v>
+      </c>
+      <c r="H26">
+        <v>3.5</v>
+      </c>
+      <c r="I26">
+        <v>-2.5</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>-2.5</v>
+      </c>
+      <c r="N26">
+        <v>3.5</v>
+      </c>
+      <c r="O26">
+        <v>-2.5</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>3.5</v>
+      </c>
+      <c r="S26">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>-7.5</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>-3</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>-7.5</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>-7.5</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <v>-3</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>-7.5</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>-7.5</v>
+      </c>
+      <c r="P27">
+        <v>-1</v>
+      </c>
+      <c r="Q27">
+        <v>-3</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>-4</v>
+      </c>
+      <c r="C28">
+        <v>6.5</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3.5</v>
+      </c>
+      <c r="F28">
+        <v>-4</v>
+      </c>
+      <c r="G28">
+        <v>6.5</v>
+      </c>
+      <c r="H28">
+        <v>-4</v>
+      </c>
+      <c r="I28">
+        <v>6.5</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>3.5</v>
+      </c>
+      <c r="L28">
+        <v>-4</v>
+      </c>
+      <c r="M28">
+        <v>6.5</v>
+      </c>
+      <c r="N28">
+        <v>-4</v>
+      </c>
+      <c r="O28">
+        <v>6.5</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>3.5</v>
+      </c>
+      <c r="R28">
+        <v>-4</v>
+      </c>
+      <c r="S28">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>-5.5</v>
+      </c>
+      <c r="C29">
+        <v>-3</v>
+      </c>
+      <c r="D29">
+        <v>2.5</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>-5.5</v>
+      </c>
+      <c r="G29">
+        <v>-3</v>
+      </c>
+      <c r="H29">
+        <v>-5.5</v>
+      </c>
+      <c r="I29">
+        <v>-3</v>
+      </c>
+      <c r="J29">
+        <v>2.5</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>-5.5</v>
+      </c>
+      <c r="M29">
+        <v>-3</v>
+      </c>
+      <c r="N29">
+        <v>-5.5</v>
+      </c>
+      <c r="O29">
+        <v>-3</v>
+      </c>
+      <c r="P29">
+        <v>2.5</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>-5.5</v>
+      </c>
+      <c r="S29">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-3</v>
+      </c>
+      <c r="D30">
+        <v>-1.5</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>-3</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>-3</v>
+      </c>
+      <c r="J30">
+        <v>-1.5</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>-3</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>-3</v>
+      </c>
+      <c r="P30">
+        <v>-1.5</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>-2.5</v>
+      </c>
+      <c r="C31">
+        <v>-3.5</v>
+      </c>
+      <c r="D31">
+        <v>-4</v>
+      </c>
+      <c r="E31">
+        <v>-3.5</v>
+      </c>
+      <c r="F31">
+        <v>-2.5</v>
+      </c>
+      <c r="G31">
+        <v>-3.5</v>
+      </c>
+      <c r="H31">
+        <v>-2.5</v>
+      </c>
+      <c r="I31">
+        <v>-3.5</v>
+      </c>
+      <c r="J31">
+        <v>-4</v>
+      </c>
+      <c r="K31">
+        <v>-3.5</v>
+      </c>
+      <c r="L31">
+        <v>-2.5</v>
+      </c>
+      <c r="M31">
+        <v>-3.5</v>
+      </c>
+      <c r="N31">
+        <v>-2.5</v>
+      </c>
+      <c r="O31">
+        <v>-3.5</v>
+      </c>
+      <c r="P31">
+        <v>-4</v>
+      </c>
+      <c r="Q31">
+        <v>-3.5</v>
+      </c>
+      <c r="R31">
+        <v>-2.5</v>
+      </c>
+      <c r="S31">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>4.5</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>6.5</v>
+      </c>
+      <c r="F32">
+        <v>4.5</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>4.5</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>6.5</v>
+      </c>
+      <c r="L32">
+        <v>4.5</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>4.5</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <v>6.5</v>
+      </c>
+      <c r="R32">
+        <v>4.5</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>-7</v>
-      </c>
-      <c r="C5">
-        <v>-4</v>
-      </c>
-      <c r="D5">
+      <c r="B33">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>-3</v>
-      </c>
-      <c r="D6">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>-8</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>-7</v>
-      </c>
-      <c r="C9">
+      <c r="C33">
+        <v>6.5</v>
+      </c>
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>-4</v>
-      </c>
-      <c r="D10">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+      <c r="E33">
+        <v>5.5</v>
+      </c>
+      <c r="F33">
         <v>-1</v>
       </c>
-      <c r="C11">
+      <c r="G33">
+        <v>6.5</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <v>6.5</v>
+      </c>
+      <c r="J33">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>7</v>
+      <c r="K33">
+        <v>5.5</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+      <c r="M33">
+        <v>6.5</v>
+      </c>
+      <c r="N33">
+        <v>-1</v>
+      </c>
+      <c r="O33">
+        <v>6.5</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>5.5</v>
+      </c>
+      <c r="R33">
+        <v>-1</v>
+      </c>
+      <c r="S33">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
+    <sortCondition ref="A2:A33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/vegasodds.xlsx
+++ b/vegasodds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daviddevito/Dropbox/NFL_Survivor_Pool_Algo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF820D4-ADB5-9146-B4BA-5CFB31ECD0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0655A11-B6F7-4748-83C7-D3F09A66F5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="740" windowWidth="13620" windowHeight="16780" xr2:uid="{DEA9C9A6-06A7-BE49-B21F-182B08E4DAEE}"/>
+    <workbookView xWindow="13860" yWindow="740" windowWidth="15320" windowHeight="16780" xr2:uid="{DEA9C9A6-06A7-BE49-B21F-182B08E4DAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Week1</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>Week17</t>
-  </si>
-  <si>
-    <t>Week18</t>
   </si>
 </sst>
 </file>
@@ -201,12 +198,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -221,8 +224,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,8 +563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D62FC5C-F8D9-694E-BAE3-7B86A4BA66FF}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,67 +574,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S1" t="s">
-        <v>49</v>
-      </c>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>-3.5</v>
+        <v>-4.5</v>
       </c>
       <c r="C2">
         <v>-6.5</v>
@@ -640,47 +643,44 @@
       <c r="E2">
         <v>-12</v>
       </c>
-      <c r="F2">
-        <v>-3.5</v>
+      <c r="F2" s="1">
+        <v>-9.5</v>
       </c>
       <c r="G2">
+        <v>-5</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <v>-5.5</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="K2">
+        <v>-7</v>
+      </c>
+      <c r="L2">
+        <v>-9</v>
+      </c>
+      <c r="M2">
+        <v>-2.5</v>
+      </c>
+      <c r="N2">
+        <v>-2</v>
+      </c>
+      <c r="O2">
+        <v>-5.5</v>
+      </c>
+      <c r="P2">
         <v>-6.5</v>
       </c>
-      <c r="H2">
-        <v>-3.5</v>
-      </c>
-      <c r="I2">
-        <v>-6.5</v>
-      </c>
-      <c r="J2">
-        <v>-4</v>
-      </c>
-      <c r="K2">
-        <v>-12</v>
-      </c>
-      <c r="L2">
-        <v>-3.5</v>
-      </c>
-      <c r="M2">
-        <v>-6.5</v>
-      </c>
-      <c r="N2">
-        <v>-3.5</v>
-      </c>
-      <c r="O2">
-        <v>-6.5</v>
-      </c>
-      <c r="P2">
-        <v>-4</v>
-      </c>
       <c r="Q2">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>-3.5</v>
-      </c>
-      <c r="S2">
-        <v>-6.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -688,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-4.5</v>
+        <v>-4</v>
       </c>
       <c r="C3">
         <v>3.5</v>
@@ -700,46 +700,43 @@
         <v>-1</v>
       </c>
       <c r="F3">
-        <v>-4.5</v>
+        <v>-5.5</v>
       </c>
       <c r="G3">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>-4.5</v>
+        <v>1000</v>
       </c>
       <c r="I3">
-        <v>3.5</v>
+        <v>-2</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>-1</v>
+        <v>-1.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-5.5</v>
       </c>
       <c r="L3">
-        <v>-4.5</v>
+        <v>-1</v>
       </c>
       <c r="M3">
-        <v>3.5</v>
+        <v>-3</v>
       </c>
       <c r="N3">
-        <v>-4.5</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>-4.5</v>
-      </c>
-      <c r="S3">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -752,61 +749,58 @@
       <c r="C4">
         <v>3.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>-6.5</v>
       </c>
       <c r="E4">
         <v>-5.5</v>
       </c>
       <c r="F4">
-        <v>-8.5</v>
+        <v>-1.5</v>
       </c>
       <c r="G4">
-        <v>3.5</v>
+        <v>-4.5</v>
       </c>
       <c r="H4">
-        <v>-8.5</v>
+        <v>-1</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>-3</v>
       </c>
       <c r="J4">
-        <v>-6.5</v>
+        <v>-7</v>
       </c>
       <c r="K4">
-        <v>-5.5</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>-8.5</v>
+        <v>-2</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="N4">
-        <v>-8.5</v>
+        <v>-5</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>-6.5</v>
+        <v>-4.5</v>
       </c>
       <c r="Q4">
-        <v>-5.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R4">
-        <v>-8.5</v>
-      </c>
-      <c r="S4">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>-6</v>
+      <c r="B5" s="1">
+        <v>-6.5</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -818,46 +812,43 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>-6</v>
+        <v>1.5</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H5">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="J5">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="L5">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N5">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P5">
-        <v>-3.5</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>-8.5</v>
       </c>
       <c r="R5">
-        <v>-6</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -865,7 +856,7 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -877,46 +868,43 @@
         <v>7</v>
       </c>
       <c r="F6">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H6">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>-2.5</v>
       </c>
       <c r="J6">
+        <v>10.5</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
         <v>3.5</v>
       </c>
-      <c r="K6">
-        <v>7</v>
-      </c>
-      <c r="L6">
-        <v>5.5</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>5.5</v>
-      </c>
       <c r="O6">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R6">
-        <v>5.5</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -936,46 +924,43 @@
         <v>-1.5</v>
       </c>
       <c r="F7">
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>-5.5</v>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-3</v>
       </c>
       <c r="K7">
-        <v>-1.5</v>
+        <v>1000</v>
       </c>
       <c r="L7">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="N7">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>-5.5</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>-1.5</v>
+        <v>3.5</v>
       </c>
       <c r="R7">
-        <v>-2.5</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -995,46 +980,43 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>-3.5</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H8">
-        <v>-3.5</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="J8">
-        <v>-3.5</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>-3.5</v>
+        <v>1000</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="N8">
-        <v>-3.5</v>
-      </c>
-      <c r="O8">
-        <v>6.5</v>
+        <v>-2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-2.5</v>
       </c>
       <c r="P8">
-        <v>-3.5</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="R8">
-        <v>-3.5</v>
-      </c>
-      <c r="S8">
-        <v>6.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1042,7 +1024,7 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C9">
         <v>2.5</v>
@@ -1054,46 +1036,43 @@
         <v>-3</v>
       </c>
       <c r="F9">
+        <v>9.5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="G9">
-        <v>2.5</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>2.5</v>
-      </c>
       <c r="J9">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="K9">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="M9">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>2.5</v>
-      </c>
-      <c r="P9">
-        <v>3.5</v>
+        <v>-1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-3.5</v>
       </c>
       <c r="Q9">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>6</v>
-      </c>
-      <c r="S9">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1113,46 +1092,43 @@
         <v>3.5</v>
       </c>
       <c r="F10">
-        <v>-3</v>
+        <v>1000</v>
       </c>
       <c r="G10">
-        <v>-3.5</v>
+        <v>-2.5</v>
       </c>
       <c r="H10">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="J10">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>3.5</v>
+        <v>-4</v>
       </c>
       <c r="L10">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>-3.5</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>-3</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>-3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P10">
-        <v>1.5</v>
+        <v>-3</v>
       </c>
       <c r="Q10">
-        <v>3.5</v>
+        <v>-4</v>
       </c>
       <c r="R10">
-        <v>-3</v>
-      </c>
-      <c r="S10">
-        <v>-3.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1172,46 +1148,43 @@
         <v>-3.5</v>
       </c>
       <c r="F11">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="G11">
-        <v>-3.5</v>
+        <v>1000</v>
       </c>
       <c r="H11">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>-3.5</v>
+        <v>-5.5</v>
       </c>
       <c r="J11">
-        <v>-3.5</v>
+        <v>-7</v>
       </c>
       <c r="K11">
-        <v>-3.5</v>
+        <v>-9</v>
       </c>
       <c r="L11">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>-3.5</v>
+        <v>-7</v>
       </c>
       <c r="N11">
-        <v>-3</v>
+        <v>-7.5</v>
       </c>
       <c r="O11">
-        <v>-3.5</v>
+        <v>-6.5</v>
       </c>
       <c r="P11">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="Q11">
-        <v>-3.5</v>
-      </c>
-      <c r="R11">
-        <v>-3</v>
-      </c>
-      <c r="S11">
-        <v>-3.5</v>
+        <v>-4.5</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-4</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1219,7 +1192,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>4.5</v>
@@ -1234,43 +1207,40 @@
         <v>2.5</v>
       </c>
       <c r="G12">
-        <v>4.5</v>
+        <v>-1.5</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
         <v>2.5</v>
       </c>
-      <c r="I12">
-        <v>4.5</v>
-      </c>
-      <c r="J12">
-        <v>-1</v>
-      </c>
-      <c r="K12">
-        <v>-1</v>
-      </c>
-      <c r="L12">
-        <v>2.5</v>
-      </c>
-      <c r="M12">
-        <v>4.5</v>
-      </c>
       <c r="N12">
-        <v>2.5</v>
+        <v>-2.5</v>
       </c>
       <c r="O12">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="R12">
-        <v>2.5</v>
-      </c>
-      <c r="S12">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -1290,46 +1260,43 @@
         <v>3</v>
       </c>
       <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>8.5</v>
+      </c>
+      <c r="H13">
+        <v>-3</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>1.5</v>
+      </c>
+      <c r="K13">
+        <v>1.5</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
         <v>3.5</v>
       </c>
-      <c r="G13">
-        <v>-2.5</v>
-      </c>
-      <c r="H13">
-        <v>3.5</v>
-      </c>
-      <c r="I13">
-        <v>-2.5</v>
-      </c>
-      <c r="J13">
-        <v>6.5</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>3.5</v>
-      </c>
-      <c r="M13">
-        <v>-2.5</v>
-      </c>
       <c r="N13">
-        <v>3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="O13">
-        <v>-2.5</v>
+        <v>1000</v>
       </c>
       <c r="P13">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q13">
         <v>3</v>
       </c>
       <c r="R13">
-        <v>3.5</v>
-      </c>
-      <c r="S13">
-        <v>-2.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -1349,46 +1316,43 @@
         <v>-5</v>
       </c>
       <c r="F14">
-        <v>2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14">
+        <v>5.5</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-2</v>
+      </c>
+      <c r="L14">
+        <v>-3</v>
+      </c>
+      <c r="M14">
+        <v>-3.5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-8</v>
+      </c>
+      <c r="O14">
+        <v>-1</v>
+      </c>
+      <c r="P14">
         <v>-6.5</v>
       </c>
-      <c r="H14">
-        <v>2.5</v>
-      </c>
-      <c r="I14">
-        <v>-6.5</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>-5</v>
-      </c>
-      <c r="L14">
-        <v>2.5</v>
-      </c>
-      <c r="M14">
-        <v>-6.5</v>
-      </c>
-      <c r="N14">
-        <v>2.5</v>
-      </c>
-      <c r="O14">
-        <v>-6.5</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
       <c r="Q14">
-        <v>-5</v>
+        <v>-4.5</v>
       </c>
       <c r="R14">
         <v>2.5</v>
-      </c>
-      <c r="S14">
-        <v>-6.5</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1408,46 +1372,43 @@
         <v>-6.5</v>
       </c>
       <c r="F15">
-        <v>-3</v>
+        <v>-4.5</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>1000</v>
       </c>
       <c r="H15">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="J15">
-        <v>-2.5</v>
+        <v>3</v>
       </c>
       <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>-6.5</v>
       </c>
-      <c r="L15">
-        <v>-3</v>
-      </c>
-      <c r="M15">
-        <v>-1</v>
+      <c r="M15" s="1">
+        <v>-7.5</v>
       </c>
       <c r="N15">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P15">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q15">
-        <v>-6.5</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>-3</v>
-      </c>
-      <c r="S15">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -1455,7 +1416,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="C16">
         <v>-3.5</v>
@@ -1467,37 +1428,37 @@
         <v>-3</v>
       </c>
       <c r="F16">
-        <v>-2.5</v>
+        <v>1000</v>
       </c>
       <c r="G16">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="H16">
-        <v>-2.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I16">
-        <v>-3.5</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>-3</v>
+        <v>-3.5</v>
       </c>
       <c r="K16">
-        <v>-3</v>
-      </c>
-      <c r="L16">
-        <v>-2.5</v>
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-7</v>
       </c>
       <c r="M16">
-        <v>-3.5</v>
+        <v>0.5</v>
       </c>
       <c r="N16">
-        <v>-2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O16">
-        <v>-3.5</v>
+        <v>-7.5</v>
       </c>
       <c r="P16">
-        <v>-3</v>
+        <v>-4.5</v>
       </c>
       <c r="Q16">
         <v>-3</v>
@@ -1505,11 +1466,8 @@
       <c r="R16">
         <v>-2.5</v>
       </c>
-      <c r="S16">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1529,46 +1487,43 @@
         <v>-3</v>
       </c>
       <c r="G17">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="H17">
-        <v>-3</v>
+        <v>-3.5</v>
       </c>
       <c r="I17">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>-3.5</v>
+        <v>-1</v>
       </c>
       <c r="L17">
         <v>-3</v>
       </c>
       <c r="M17">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="N17">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="P17">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Q17">
-        <v>-3.5</v>
+        <v>-4.5</v>
       </c>
       <c r="R17">
-        <v>-3</v>
-      </c>
-      <c r="S17">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1585,49 +1540,46 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="G18">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="I18">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>5.5</v>
+        <v>-1.5</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M18">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O18">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1644,56 +1596,53 @@
         <v>3.5</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>-2.5</v>
       </c>
       <c r="G19">
-        <v>-2</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
+        <v>-1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-6.5</v>
       </c>
       <c r="I19">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>3.5</v>
       </c>
       <c r="K19">
-        <v>3.5</v>
+        <v>-3</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>-2</v>
+        <v>1000</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O19">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>3</v>
-      </c>
-      <c r="S19">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20">
-        <v>3.5</v>
-      </c>
-      <c r="C20">
+        <v>4.5</v>
+      </c>
+      <c r="C20" s="1">
         <v>-4</v>
       </c>
       <c r="D20">
@@ -1703,49 +1652,46 @@
         <v>-7</v>
       </c>
       <c r="F20">
-        <v>3.5</v>
+        <v>-4</v>
       </c>
       <c r="G20">
+        <v>-1.5</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <v>-4.5</v>
+      </c>
+      <c r="J20">
+        <v>-3</v>
+      </c>
+      <c r="K20">
+        <v>-3</v>
+      </c>
+      <c r="L20">
         <v>-4</v>
       </c>
-      <c r="H20">
-        <v>3.5</v>
-      </c>
-      <c r="I20">
-        <v>-4</v>
-      </c>
-      <c r="J20">
-        <v>-7</v>
-      </c>
-      <c r="K20">
-        <v>-7</v>
-      </c>
-      <c r="L20">
-        <v>3.5</v>
-      </c>
       <c r="M20">
-        <v>-4</v>
+        <v>1000</v>
       </c>
       <c r="N20">
-        <v>3.5</v>
+        <v>-4.5</v>
       </c>
       <c r="O20">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="P20">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="Q20">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="R20">
-        <v>3.5</v>
-      </c>
-      <c r="S20">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1758,58 +1704,55 @@
       <c r="D21">
         <v>-3.5</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>-6</v>
       </c>
       <c r="F21">
-        <v>-3.5</v>
+        <v>1000</v>
       </c>
       <c r="G21">
-        <v>-6.5</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="I21">
-        <v>-6.5</v>
+        <v>-7.5</v>
       </c>
       <c r="J21">
-        <v>-3.5</v>
+        <v>1.5</v>
       </c>
       <c r="K21">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
       <c r="M21">
-        <v>-6.5</v>
+        <v>-2.5</v>
       </c>
       <c r="N21">
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
       <c r="O21">
-        <v>-6.5</v>
+        <v>-2.5</v>
       </c>
       <c r="P21">
-        <v>-3.5</v>
+        <v>-2</v>
       </c>
       <c r="Q21">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>-3.5</v>
-      </c>
-      <c r="S21">
-        <v>-6.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>-4.5</v>
@@ -1821,49 +1764,46 @@
         <v>-5.5</v>
       </c>
       <c r="F22">
+        <v>1.5</v>
+      </c>
+      <c r="G22">
+        <v>-5</v>
+      </c>
+      <c r="H22">
+        <v>-2.5</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+      <c r="J22">
+        <v>-1.5</v>
+      </c>
+      <c r="K22">
+        <v>1000</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <v>2.5</v>
       </c>
-      <c r="G22">
-        <v>-4.5</v>
-      </c>
-      <c r="H22">
+      <c r="N22">
+        <v>-3</v>
+      </c>
+      <c r="O22">
         <v>2.5</v>
       </c>
-      <c r="I22">
-        <v>-4.5</v>
-      </c>
-      <c r="J22">
-        <v>-4</v>
-      </c>
-      <c r="K22">
-        <v>-5.5</v>
-      </c>
-      <c r="L22">
-        <v>2.5</v>
-      </c>
-      <c r="M22">
-        <v>-4.5</v>
-      </c>
-      <c r="N22">
-        <v>2.5</v>
-      </c>
-      <c r="O22">
-        <v>-4.5</v>
-      </c>
       <c r="P22">
-        <v>-4</v>
-      </c>
-      <c r="Q22">
-        <v>-5.5</v>
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>-5</v>
       </c>
       <c r="R22">
-        <v>2.5</v>
-      </c>
-      <c r="S22">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1880,49 +1820,46 @@
         <v>5.5</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="G23">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>-3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="M23">
-        <v>-3.5</v>
+        <v>7</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>-3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q23">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>4</v>
-      </c>
-      <c r="S23">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1939,49 +1876,46 @@
         <v>12</v>
       </c>
       <c r="F24">
+        <v>4.5</v>
+      </c>
+      <c r="G24">
+        <v>4.5</v>
+      </c>
+      <c r="H24">
+        <v>6.5</v>
+      </c>
+      <c r="I24">
+        <v>4.5</v>
+      </c>
+      <c r="J24">
+        <v>2.5</v>
+      </c>
+      <c r="K24">
+        <v>5.5</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>7.5</v>
+      </c>
+      <c r="N24">
+        <v>2.5</v>
+      </c>
+      <c r="O24">
+        <v>1000</v>
+      </c>
+      <c r="P24">
+        <v>3.5</v>
+      </c>
+      <c r="Q24">
         <v>8.5</v>
       </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>8.5</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <v>7</v>
-      </c>
-      <c r="K24">
-        <v>12</v>
-      </c>
-      <c r="L24">
-        <v>8.5</v>
-      </c>
-      <c r="M24">
-        <v>3</v>
-      </c>
-      <c r="N24">
-        <v>8.5</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>7</v>
-      </c>
-      <c r="Q24">
-        <v>12</v>
-      </c>
       <c r="R24">
-        <v>8.5</v>
-      </c>
-      <c r="S24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1998,49 +1932,46 @@
         <v>1.5</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>4.5</v>
+      </c>
+      <c r="I25">
+        <v>5.5</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>1000</v>
+      </c>
+      <c r="L25">
+        <v>6.5</v>
+      </c>
+      <c r="M25">
+        <v>-3</v>
+      </c>
+      <c r="N25">
         <v>7.5</v>
       </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>7.5</v>
-      </c>
-      <c r="J25">
-        <v>-4</v>
-      </c>
-      <c r="K25">
-        <v>1.5</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="M25">
-        <v>7.5</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
       <c r="O25">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="P25">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>3</v>
-      </c>
-      <c r="S25">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2057,49 +1988,46 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="G26">
-        <v>-2.5</v>
+        <v>1000</v>
       </c>
       <c r="H26">
-        <v>3.5</v>
+        <v>-4.5</v>
       </c>
       <c r="I26">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>-1.5</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>-4</v>
       </c>
       <c r="M26">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="N26">
-        <v>3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="O26">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>3.5</v>
-      </c>
-      <c r="S26">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2116,49 +2044,46 @@
         <v>-3</v>
       </c>
       <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>-7.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-8.5</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="I27">
-        <v>-7.5</v>
+        <v>-1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>-10.5</v>
       </c>
       <c r="K27">
         <v>-3</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="M27">
-        <v>-7.5</v>
+        <v>-3</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>-3.5</v>
       </c>
       <c r="O27">
-        <v>-7.5</v>
+        <v>1000</v>
       </c>
       <c r="P27">
-        <v>-1</v>
+        <v>-6.5</v>
       </c>
       <c r="Q27">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="R27">
-        <v>3</v>
-      </c>
-      <c r="S27">
-        <v>-7.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2175,54 +2100,51 @@
         <v>3.5</v>
       </c>
       <c r="F28">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>6.5</v>
+        <v>-1.5</v>
       </c>
       <c r="H28">
-        <v>-4</v>
+        <v>-3.5</v>
       </c>
       <c r="I28">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K28">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>6.5</v>
+        <v>1000</v>
       </c>
       <c r="N28">
-        <v>-4</v>
+        <v>1.5</v>
       </c>
       <c r="O28">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="Q28">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="R28">
-        <v>-4</v>
-      </c>
-      <c r="S28">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-5.5</v>
+        <v>-6</v>
       </c>
       <c r="C29">
         <v>-3</v>
@@ -2234,49 +2156,46 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>-5.5</v>
+        <v>-3.5</v>
       </c>
       <c r="G29">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>-5.5</v>
+        <v>3.5</v>
       </c>
       <c r="I29">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="L29">
-        <v>-5.5</v>
+        <v>9</v>
       </c>
       <c r="M29">
         <v>-3</v>
       </c>
       <c r="N29">
-        <v>-5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O29">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="P29">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="R29">
-        <v>-5.5</v>
-      </c>
-      <c r="S29">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2293,54 +2212,51 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G30">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>-3</v>
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-4</v>
       </c>
       <c r="J30">
+        <v>1000</v>
+      </c>
+      <c r="K30">
         <v>-1.5</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
       <c r="L30">
         <v>3</v>
       </c>
       <c r="M30">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O30">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P30">
-        <v>-1.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R30">
-        <v>3</v>
-      </c>
-      <c r="S30">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
       <c r="B31">
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
       <c r="C31">
         <v>-3.5</v>
@@ -2352,54 +2268,51 @@
         <v>-3.5</v>
       </c>
       <c r="F31">
+        <v>-1.5</v>
+      </c>
+      <c r="G31">
+        <v>-4.5</v>
+      </c>
+      <c r="H31">
+        <v>2.5</v>
+      </c>
+      <c r="I31">
+        <v>-4</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>-6</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1000</v>
+      </c>
+      <c r="P31">
         <v>-2.5</v>
       </c>
-      <c r="G31">
-        <v>-3.5</v>
-      </c>
-      <c r="H31">
-        <v>-2.5</v>
-      </c>
-      <c r="I31">
-        <v>-3.5</v>
-      </c>
-      <c r="J31">
-        <v>-4</v>
-      </c>
-      <c r="K31">
-        <v>-3.5</v>
-      </c>
-      <c r="L31">
-        <v>-2.5</v>
-      </c>
-      <c r="M31">
-        <v>-3.5</v>
-      </c>
-      <c r="N31">
-        <v>-2.5</v>
-      </c>
-      <c r="O31">
-        <v>-3.5</v>
-      </c>
-      <c r="P31">
-        <v>-4</v>
-      </c>
       <c r="Q31">
-        <v>-3.5</v>
+        <v>4.5</v>
       </c>
       <c r="R31">
-        <v>-2.5</v>
-      </c>
-      <c r="S31">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -2411,49 +2324,46 @@
         <v>6.5</v>
       </c>
       <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32">
+        <v>1.5</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>7.5</v>
+      </c>
+      <c r="J32">
+        <v>-2.5</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>1.5</v>
+      </c>
+      <c r="O32">
+        <v>1.5</v>
+      </c>
+      <c r="P32">
         <v>4.5</v>
       </c>
-      <c r="G32">
+      <c r="Q32">
         <v>4</v>
       </c>
-      <c r="H32">
-        <v>4.5</v>
-      </c>
-      <c r="I32">
+      <c r="R32">
         <v>4</v>
       </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>6.5</v>
-      </c>
-      <c r="L32">
-        <v>4.5</v>
-      </c>
-      <c r="M32">
-        <v>4</v>
-      </c>
-      <c r="N32">
-        <v>4.5</v>
-      </c>
-      <c r="O32">
-        <v>4</v>
-      </c>
-      <c r="P32">
-        <v>4</v>
-      </c>
-      <c r="Q32">
-        <v>6.5</v>
-      </c>
-      <c r="R32">
-        <v>4.5</v>
-      </c>
-      <c r="S32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2470,46 +2380,43 @@
         <v>5.5</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>6.5</v>
+        <v>1000</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="K33">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>-1</v>
       </c>
       <c r="M33">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="O33">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>-1</v>
-      </c>
-      <c r="S33">
-        <v>6.5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
